--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/65_Rize_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/65_Rize_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41069E0-B974-451D-853F-FAC9E150AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163B8F06-EC7B-400A-B241-3781A5DF962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{20416E73-32FD-4D0B-B801-1A1B8015086A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{09C6BD6C-7E2B-4917-9EBF-16FE4CA14671}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -931,13 +931,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7277BD7E-9A77-419D-9325-21DED9CA3117}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8FC0BDB6-2A75-4190-B69D-47B26AA11530}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{EEEBDC38-D70F-4C3A-A4FE-B69AA63A8708}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C62D5F2C-D34B-4ADB-9B1E-BD9CDF5EDB46}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{97693158-14A0-4CDD-A373-B22020BE6EFE}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{5BD06971-DE52-41D0-A6A1-976E7579663B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{73185814-D07B-4FBF-9470-26EC6FB82B54}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5FE6C057-F8BD-4CB9-9E0F-5B3846D05870}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{851D6AE8-2122-49A8-81AA-E1CD7C7B6ADD}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B4003269-CEEA-4E45-8662-A28AC9B07E0F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{0E148E8C-AAF9-444F-8E49-DDFC9162A9BC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{EF308710-CAA9-4076-BABA-3B2C0DBB2C2F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{3A58B214-6747-4318-BF78-2C7E806E8D0C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B7C3574C-7E51-488D-884B-65037CA8456D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5210AB5A-FE8A-4A81-B9AA-ED8AE2F56B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03C399-B47B-4583-8BBC-623D672C1F1A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBDBB2C-DC00-4E09-B4A7-1281C224F6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B255E-6E0A-4676-ADF5-3D2CC3B4BB8A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3871,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60881A31-EF64-4DF1-B66D-5C6A6F4777C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511C1A22-5DEC-4537-8B05-DD10FB8565CF}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5153,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD13D931-5B5D-46EE-BE15-17873A96CFCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23A3310-9EF0-4152-B982-CA5761E70DC1}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6435,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CA0C7D-3507-4F1E-8065-AA9B6D221842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C2CB7-2294-459C-AF9E-DEE318EA05A1}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7715,7 +7715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AC1F25-7D7A-47CA-A1F1-A0E306EA7AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BD738D-4F8C-437D-B34F-608BBB85F9FB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8997,7 +8997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CC0AB6-4D07-49BC-82A9-ACABFF096EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A472F-B63A-405E-8658-C37B4B38775A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10277,7 +10277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D6A64-13CE-404A-8D77-714C6B96D1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A999EABB-9828-487F-B276-69B95C90594F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11557,7 +11557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C005B54A-EAF9-4D9F-9307-551A3AC8B546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B6A3ED-ADC1-4143-A56D-EFD35F523040}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -12842,7 +12842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4EA84D-9177-499A-B09B-78C2E36339B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08047B96-AFAB-41E0-9581-0350CB2992DD}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14124,7 +14124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F33CE4-0F26-4DB0-B337-0DF1CA3A939B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77193E0E-0555-41A6-9935-0307C21646DE}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15406,7 +15406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AD6357-F00F-4F66-B167-2F2B8614A6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACFC740-67D1-47B5-9E86-EBDC4A8400A7}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
